--- a/new_results/all_results.xlsx
+++ b/new_results/all_results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder\Studia-materialy_i_ksiazki\magisterka\MS_project2\new_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A079BFD-72A6-4663-93C0-DC4F96259E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23554" yWindow="-6523" windowWidth="23657" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23550" yWindow="-6525" windowWidth="23655" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="razem" sheetId="3" r:id="rId1"/>
@@ -18,8 +17,10 @@
     <sheet name="legacy thr" sheetId="2" r:id="rId3"/>
     <sheet name="ax delay" sheetId="4" r:id="rId4"/>
     <sheet name="legacy delay" sheetId="5" r:id="rId5"/>
+    <sheet name="ax thr no ampdu" sheetId="6" r:id="rId6"/>
+    <sheet name="legacy thr no ampdu" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,6 +128,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -854,6 +856,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -885,6 +888,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -892,7 +896,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -967,6 +970,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,6 +1571,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1598,6 +1603,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1605,7 +1611,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1655,6 +1660,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,6 +2197,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2198,7 +2205,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2248,6 +2254,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2776,6 +2783,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2783,7 +2791,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2858,6 +2865,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3319,6 +3327,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3326,7 +3335,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3376,6 +3384,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3826,6 +3835,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3833,7 +3843,1191 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'ax thr no ampdu'!$I$3:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>3.8837391072962637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.41673904165512</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.76555948851375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2279921312252053</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0625912130900295</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5718585186952936</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5926803946746109</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.2580784520523345</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.2315054683043494</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.3977134186908362</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.9458768292631654</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.7391465108377613</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'ax thr no ampdu'!$I$3:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>3.8837391072962637</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.41673904165512</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.76555948851375</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2279921312252053</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0625912130900295</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5718585186952936</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.5926803946746109</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.2580784520523345</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.2315054683043494</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.3977134186908362</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.9458768292631654</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.7391465108377613</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ax thr no ampdu'!$A$3:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ax thr no ampdu'!$G$3:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>43.072923104000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.066935774499989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.617606817999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.986434286799998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.071710400399994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.446425322199993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.371636418999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.171983143599995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.526205837799992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.063961247599998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.716895540000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.853948054000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6495-45ED-B655-9AE50ADFB907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411478224"/>
+        <c:axId val="411476624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411478224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411476624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411476624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411478224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'legacy thr no ampdu'!$J$3:$J$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1896197482744806</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58940160426816679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.48111628256208538</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.78093287485198093</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.99946458894015189</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0889470278507687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.64843008250377066</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.2345815298960268</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.81861691990786067</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.98287210102895695</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7137401832730483</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'legacy thr no ampdu'!$J$3:$J$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="22"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1896197482744806</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58940160426816679</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.48111628256208538</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.78093287485198093</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.99946458894015189</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0889470278507687</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.64843008250377066</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.2345815298960268</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.81861691990786067</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.98287210102895695</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7137401832730483</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'legacy thr no ampdu'!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'legacy thr no ampdu'!$H$3:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4308940000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58798136200000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93230321999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2767788200000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9594241999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3714644520000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8564442400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4821563439999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0832127479999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2796803733333331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4232836237500006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B12-480C-B6FD-207A854E1BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="521391800"/>
+        <c:axId val="411131256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="521391800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411131256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411131256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521391800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4108,6 +5302,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6689,6 +7963,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7447,6 +9753,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>597350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167365</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED4780-272E-482C-8D99-52ACFF97DC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C67758F-AE5E-49A6-919F-5C5DEA72AF04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7709,7 +10101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B9EFFD-FDC5-4BAA-9849-69BE221C1371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -7724,11 +10116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8410,11 +10802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAED74-DF61-4B3E-8B44-0D7F65FCEC1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="H35" sqref="H34:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9087,7 +11479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC6627-756B-47AC-92FD-BF99D75AD848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9561,7 +11953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4E3162-8261-41F5-82E2-03D86B358F3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9999,4 +12391,1145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>333</v>
+      </c>
+      <c r="C2">
+        <v>334</v>
+      </c>
+      <c r="D2">
+        <v>335</v>
+      </c>
+      <c r="E2">
+        <v>336</v>
+      </c>
+      <c r="F2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>45.405546509999994</v>
+      </c>
+      <c r="C3">
+        <v>38.083660000000002</v>
+      </c>
+      <c r="D3">
+        <v>39.004853660000002</v>
+      </c>
+      <c r="E3">
+        <v>48.560809499999998</v>
+      </c>
+      <c r="F3">
+        <v>44.309745849999999</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:F3)</f>
+        <v>43.072923104000004</v>
+      </c>
+      <c r="H3">
+        <f>STDEV(B3:F3)</f>
+        <v>4.4308490968658019</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05, H3, COUNTA(B3:F3))</f>
+        <v>3.8837391072962637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>60.15999034999998</v>
+      </c>
+      <c r="C4">
+        <v>34.03026552</v>
+      </c>
+      <c r="E4">
+        <v>43.47075705999999</v>
+      </c>
+      <c r="F4">
+        <v>54.606730167999977</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="0">AVERAGE(B4:F4)</f>
+        <v>48.066935774499989</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H24" si="1">STDEV(B4:F4)</f>
+        <v>11.649947786499041</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I24" si="2">_xlfn.CONFIDENCE.NORM(0.05, H4, COUNTA(B4:F4))</f>
+        <v>11.41673904165512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>55.131214979999982</v>
+      </c>
+      <c r="C5">
+        <v>38.146908689999997</v>
+      </c>
+      <c r="D5">
+        <v>46.591307099999987</v>
+      </c>
+      <c r="E5">
+        <v>40.849711990000003</v>
+      </c>
+      <c r="F5">
+        <v>47.368891329999983</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>45.617606817999992</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6.5777652274876282</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>5.76555948851375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>56.970808920000003</v>
+      </c>
+      <c r="C6">
+        <v>32.954436969999989</v>
+      </c>
+      <c r="D6">
+        <v>47.495338693999997</v>
+      </c>
+      <c r="E6">
+        <v>38.492223590000002</v>
+      </c>
+      <c r="F6">
+        <v>39.019363259999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>42.986434286799998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>9.3870856142647376</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8.2279921312252053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>51.406129808999999</v>
+      </c>
+      <c r="C7">
+        <v>35.815335527000002</v>
+      </c>
+      <c r="D7">
+        <v>42.586824380000003</v>
+      </c>
+      <c r="E7">
+        <v>40.74611672999999</v>
+      </c>
+      <c r="F7">
+        <v>39.804145556000009</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>42.071710400399994</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>5.7757684243463148</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>5.0625912130900295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>47.263164160000002</v>
+      </c>
+      <c r="C8">
+        <v>33.154856870999993</v>
+      </c>
+      <c r="D8">
+        <v>42.407307759999988</v>
+      </c>
+      <c r="E8">
+        <v>40.759653949999993</v>
+      </c>
+      <c r="F8">
+        <v>43.647143869999987</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>41.446425322199993</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.2159052472146357</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>4.5718585186952936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>58.614585699999992</v>
+      </c>
+      <c r="C9">
+        <v>35.10719043000001</v>
+      </c>
+      <c r="D9">
+        <v>45.297769715000001</v>
+      </c>
+      <c r="E9">
+        <v>41.164172960000002</v>
+      </c>
+      <c r="F9">
+        <v>46.674463289999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>45.371636418999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8.6622762600949255</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7.5926803946746109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>49.874100199999987</v>
+      </c>
+      <c r="C10">
+        <v>32.435706332000002</v>
+      </c>
+      <c r="D10">
+        <v>32.773721829999999</v>
+      </c>
+      <c r="E10">
+        <v>40.60093916000001</v>
+      </c>
+      <c r="F10">
+        <v>40.175448195999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>39.171983143599995</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>7.1396663090212558</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>6.2580784520523345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>45.601412179999983</v>
+      </c>
+      <c r="C14">
+        <v>27.184555765999999</v>
+      </c>
+      <c r="D14">
+        <v>42.49366046399998</v>
+      </c>
+      <c r="E14">
+        <v>37.094777919999999</v>
+      </c>
+      <c r="F14">
+        <v>35.256622858999997</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>37.526205837799992</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>7.1093499366316708</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6.2315054683043494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>53.714723899999989</v>
+      </c>
+      <c r="C15">
+        <v>30.487979450000001</v>
+      </c>
+      <c r="D15">
+        <v>40.589988493999989</v>
+      </c>
+      <c r="E15">
+        <v>45.215981579999998</v>
+      </c>
+      <c r="F15">
+        <v>40.31113281399999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>42.063961247599998</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8.4398439015893185</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>7.3977134186908362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>37.358651289999997</v>
+      </c>
+      <c r="D16">
+        <v>32.715251739999992</v>
+      </c>
+      <c r="E16">
+        <v>37.076783590000012</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>35.716895540000003</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.6033173983659172</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.9458768292631654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>43.258754190000012</v>
+      </c>
+      <c r="C17">
+        <v>28.953824040000001</v>
+      </c>
+      <c r="D17">
+        <v>40.459449169999999</v>
+      </c>
+      <c r="E17">
+        <v>39.112345910000002</v>
+      </c>
+      <c r="F17">
+        <v>37.485366960000007</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>37.853948054000014</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>5.4067594288223608</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.7391465108377613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>333</v>
+      </c>
+      <c r="D2">
+        <v>334</v>
+      </c>
+      <c r="E2">
+        <v>335</v>
+      </c>
+      <c r="F2">
+        <v>336</v>
+      </c>
+      <c r="G2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
+        <f>STDEV(C3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f>_xlfn.CONFIDENCE.NORM(0.05, I3, COUNTA(C3:F3))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5.0266599999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.303124</v>
+      </c>
+      <c r="G4">
+        <v>0.39379199999999998</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(C4:G4)</f>
+        <v>1.4308940000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I24" si="0">STDEV(C4:F4)</f>
+        <v>2.8187168256221362</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J24" si="1">_xlfn.CONFIDENCE.NORM(0.05, I4, COUNTA(C4:F4))</f>
+        <v>3.1896197482744806</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.25601099999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.56504500000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.499255</v>
+      </c>
+      <c r="F5">
+        <v>1.613245</v>
+      </c>
+      <c r="G5">
+        <v>6.3508100000000001E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H24" si="2">AVERAGE(C5:G5)</f>
+        <v>0.58798136200000006</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.60144126006119669</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.58940160426816679</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.58754700000000004</v>
+      </c>
+      <c r="D6">
+        <v>1.7733179999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.0188619999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.1859980000000001</v>
+      </c>
+      <c r="G6">
+        <v>9.579109999999999E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.93230321999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.49094400341748051</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.48111628256208538</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1.260195</v>
+      </c>
+      <c r="D7">
+        <v>0.93530869999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.0039804000000001</v>
+      </c>
+      <c r="F7">
+        <v>2.635545</v>
+      </c>
+      <c r="G7">
+        <v>0.54886499999999994</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.2767788200000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.79688492340867489</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.78093287485198093</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2.2282229999999998</v>
+      </c>
+      <c r="D8">
+        <v>1.7439918999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.81627799999999995</v>
+      </c>
+      <c r="F8">
+        <v>3.2658529999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.7427751</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.9594241999999997</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0198805659938666</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.99946458894015189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2.7722730000000002</v>
+      </c>
+      <c r="D9">
+        <v>1.8022252000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.5538261</v>
+      </c>
+      <c r="F9">
+        <v>4.0007099999999998</v>
+      </c>
+      <c r="G9">
+        <v>1.7282879600000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>2.3714644520000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.1111908549751366</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1.0889470278507687</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1.727875</v>
+      </c>
+      <c r="D10">
+        <v>3.2401683000000001</v>
+      </c>
+      <c r="E10">
+        <v>2.7309445000000001</v>
+      </c>
+      <c r="F10">
+        <v>2.981509</v>
+      </c>
+      <c r="G10">
+        <v>3.6017244000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.8564442400000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.66167550793637497</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.64843008250377066</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>2.681953829999999</v>
+      </c>
+      <c r="D14">
+        <v>1.8084275000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.5555876</v>
+      </c>
+      <c r="F14">
+        <v>4.3427624099999997</v>
+      </c>
+      <c r="G14">
+        <v>2.02205038</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2.4821563439999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.2598002204471599</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.2345815298960268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4.2122970400000002</v>
+      </c>
+      <c r="D15">
+        <v>3.1853037999999998</v>
+      </c>
+      <c r="E15">
+        <v>2.167071</v>
+      </c>
+      <c r="F15">
+        <v>3.2383551000000002</v>
+      </c>
+      <c r="G15">
+        <v>2.6130368000000002</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.0832127479999998</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.8353387372064045</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.81861691990786067</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>2.56224908</v>
+      </c>
+      <c r="E16">
+        <v>3.0314367999999998</v>
+      </c>
+      <c r="F16">
+        <v>4.2453552399999994</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3.2796803733333331</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.8685794380673908</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.98287210102895695</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>4.29293485</v>
+      </c>
+      <c r="D17">
+        <v>3.1641935350000008</v>
+      </c>
+      <c r="E17">
+        <v>3.1836740100000012</v>
+      </c>
+      <c r="F17">
+        <v>11.052332099999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>5.4232836237500006</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>3.7896004340554805</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3.7137401832730483</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>